--- a/resources/experiment 2/metrics/MAPE/upto time/Infarto de Miocardio (UPTO).xlsx
+++ b/resources/experiment 2/metrics/MAPE/upto time/Infarto de Miocardio (UPTO).xlsx
@@ -465,10 +465,10 @@
         <v>6353912774558874</v>
       </c>
       <c r="C2" t="n">
-        <v>6353912774558874</v>
+        <v>6353912774558873</v>
       </c>
       <c r="D2" t="n">
-        <v>6353912774558874</v>
+        <v>6353912774558873</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20512584110103.06</v>
+        <v>236267315465153.4</v>
       </c>
       <c r="C3" t="n">
-        <v>20509018274250.28</v>
+        <v>226316283694391.1</v>
       </c>
       <c r="D3" t="n">
-        <v>20509018274250.28</v>
+        <v>868639828996547.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>255406488552603.1</v>
+        <v>9955873257502.84</v>
       </c>
       <c r="C4" t="n">
-        <v>255407788876064.6</v>
+        <v>10060287319479.29</v>
       </c>
       <c r="D4" t="n">
-        <v>255407788876064.6</v>
+        <v>270922304131884.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3960308497218687</v>
+        <v>430491909386283.6</v>
       </c>
       <c r="C5" t="n">
-        <v>3960308497218687</v>
+        <v>559469640814184.7</v>
       </c>
       <c r="D5" t="n">
-        <v>3960308497218687</v>
+        <v>3195131380174678</v>
       </c>
     </row>
   </sheetData>
